--- a/biology/Zoologie/Eristalinae/Eristalinae.xlsx
+++ b/biology/Zoologie/Eristalinae/Eristalinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cheilosinae, Chilosinae, Milesiinae · éristalinés
 Les Eristalinae (éristalinés en français) sont une des trois sous-familles des Syrphidae.
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-famille des Eristalinae est décrite par l'entomologiste britannique Edward Newman (1801-1876) en 1834[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-famille des Eristalinae est décrite par l'entomologiste britannique Edward Newman (1801-1876) en 1834,.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une espèce parmi les plus répandues d'éristalinés, de la tribu Eristaliini, est l'éristale gluant(e) (Eristalis tenax) imitant l'abeille domestique (Apis mellifera).
 </t>
@@ -574,23 +590,25 @@
           <t>Liste des tribus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (5 déc. 2018)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (5 déc. 2018) :
 Brachyopini Williston, 1885
 Calliceratini Brues &amp; Melander, 1932
 Cerioidini Wahlgren, 1909
 Eristaliini Newman, 1834 - dont Eristalinus, Eristalis et Myathropa
-Merodontini (ou Eumerini : synonyme)[4] - dont Merodon
+Merodontini (ou Eumerini : synonyme) - dont Merodon
 Milesiini Rondani, 1845 - dont Milesia et Temnostoma
 Pelecocerini
 Pipizini
 Rhingiini  Meigen, 1822 - dont Rhingia
 Sericomyiini
 Volucellini - dont Volucella
-Selon ITIS      (14 octobre 2021)[5] :
+Selon ITIS      (14 octobre 2021) :
 Brachyopini, Calliceratini, Cerioidini, Eristaliini, Eumerini, Milesiini, Pipizini, Rhingiini, Volucellini  
-Selon NCBI  (9 février 2017)[6] :
+Selon NCBI  (9 février 2017) :
 Brachyopini, Callicerini, Cerioidini, Chrysogasterini, Eristalini, Merodontini, Milesiini, Rhingiini, Sericomyiini, Volucellini, Xylotini
 </t>
         </is>
